--- a/experiments/src/logistic_regression_experiment_average_error_mean.xlsx
+++ b/experiments/src/logistic_regression_experiment_average_error_mean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb P. Nwokocha\OneDrive - University of Manitoba\Documents\personal_projects\my_ai\research_doc\comprehensive_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8A0F5E-48F7-4AA1-A594-C2B76DD0BA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD45B599-063C-4374-B6EE-0A745A480632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACE7625C-8F70-433F-8AFC-97BEB90C06A3}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Arithmetic Mean of TrainEM of all tasks.</t>
   </si>
   <si>
-    <t>TRAINING ERROR MEAN (TestEM)</t>
-  </si>
-  <si>
     <t>Test #</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Arithmetic Mean of TestEM of all tasks.</t>
+  </si>
+  <si>
+    <t>TESTING ERROR MEAN (TestEM)</t>
   </si>
 </sst>
 </file>
@@ -2750,7 +2750,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3114,37 +3114,37 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>21</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3875,4 +3875,292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CB5EA458A0058B4CAA35AEFF21016FDA" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="914a85b1481f1dcf205900f495f4c990">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e2a27098-a80a-4073-8b19-8a7b332ebe99" xmlns:ns4="fad29e59-21b3-420a-a166-9fd37d365e2a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1f12b3310042c84f5cc90f6d8898f62" ns3:_="" ns4:_="">
+    <xsd:import namespace="e2a27098-a80a-4073-8b19-8a7b332ebe99"/>
+    <xsd:import namespace="fad29e59-21b3-420a-a166-9fd37d365e2a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e2a27098-a80a-4073-8b19-8a7b332ebe99" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fad29e59-21b3-420a-a166-9fd37d365e2a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2941AF1D-6240-47D8-8A77-598921ECA423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e2a27098-a80a-4073-8b19-8a7b332ebe99"/>
+    <ds:schemaRef ds:uri="fad29e59-21b3-420a-a166-9fd37d365e2a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A013B8-50D0-40E2-932A-15F33D81C6F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E32ABD-513B-4426-B700-447872850AAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fad29e59-21b3-420a-a166-9fd37d365e2a"/>
+    <ds:schemaRef ds:uri="e2a27098-a80a-4073-8b19-8a7b332ebe99"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/experiments/src/logistic_regression_experiment_average_error_mean.xlsx
+++ b/experiments/src/logistic_regression_experiment_average_error_mean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb P. Nwokocha\OneDrive - University of Manitoba\Documents\personal_projects\my_ai\research_doc\comprehensive_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD45B599-063C-4374-B6EE-0A745A480632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961814E6-168E-4DDB-B6C7-53FD8CF9F3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACE7625C-8F70-433F-8AFC-97BEB90C06A3}"/>
   </bookViews>
@@ -505,7 +505,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> error-men</a:t>
+                  <a:t> error-mean</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -985,7 +985,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> error-men</a:t>
+                  <a:t> error-mean</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2749,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBABB454-0CDB-4185-8056-08E03D370193}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/experiments/src/logistic_regression_experiment_average_error_mean.xlsx
+++ b/experiments/src/logistic_regression_experiment_average_error_mean.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb P. Nwokocha\OneDrive - University of Manitoba\Documents\personal_projects\my_ai\research_doc\comprehensive_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961814E6-168E-4DDB-B6C7-53FD8CF9F3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88D9ED1-7C8B-4FD0-A305-FAB679BFCC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACE7625C-8F70-433F-8AFC-97BEB90C06A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -252,7 +249,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -267,7 +264,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -707,7 +704,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -722,7 +719,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2296,160 +2293,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>1.7396800401150341</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="K4">
-            <v>0.20751154274173844</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>0.20861058240408398</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0.208416541737074</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>0.20902896455550979</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>0.19695282503390732</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>0.1972297801122869</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="K19">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="K20">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="K21">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="K22">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="K23">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="K24">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="K25">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="K26">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="K27">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="K30">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="K32">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="K33">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="K34">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="K35">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="K36">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="K37">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="K38">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2749,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBABB454-0CDB-4185-8056-08E03D370193}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4107,18 +3950,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4141,14 +3984,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A013B8-50D0-40E2-932A-15F33D81C6F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E32ABD-513B-4426-B700-447872850AAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4163,4 +3998,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A013B8-50D0-40E2-932A-15F33D81C6F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>